--- a/Tabela_de_frequencia_e_grafico_de_sequencia.xlsx
+++ b/Tabela_de_frequencia_e_grafico_de_sequencia.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guipa\OneDrive\Documentos\Probabilidade-e-Estatistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7B80D-D0AB-4826-9FE2-68C1A0AC00AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEA6CF0-D691-44E8-BAF5-A41892BEBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{742F1B5D-DC0F-416C-9C86-067029DF3EBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{742F1B5D-DC0F-416C-9C86-067029DF3EBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha3!$A$1:$A$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha3!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha3!$A$2:$A$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha3!$A$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha3!$A$2:$A$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +105,21 @@
   </si>
   <si>
     <t>Contagem de Semestre</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>altura</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -159,7 +182,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,17 +191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -189,6 +205,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -216,6 +238,399 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0237-4B94-B049-A9FC78E28C14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1067729824"/>
+        <c:axId val="1067723104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1067729824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067723104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1067723104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067729824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -223,7 +638,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Perfil.xlsx]Planilha2!Tabela dinâmica2</c:name>
+    <c:name>[Tabela_de_frequencia_e_grafico_de_sequencia.xlsx]Planilha2!Tabela dinâmica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -283,7 +698,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -301,19 +716,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -820,7 +1223,57 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C8956F56-506E-4DBD-BE0D-D3A8C849BB2D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Idade</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -857,7 +1310,533 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1360,7 +2339,663 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EA160D-2F15-B54D-67E4-6A208F621403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector reto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38B23BD-2002-A82E-3DFA-ADD982868F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008120" y="2583180"/>
+          <a:ext cx="4076700" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector reto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D887B9E-5688-AA55-4781-D890B060F39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3947160" y="2689860"/>
+          <a:ext cx="4053840" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1396,6 +3031,89 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CA5451-B66C-D8B4-0502-4433270AAF53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1196340" y="0"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1743,7 +3461,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D11FF550-F6BD-47A7-A02F-D8B8761F3B7E}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D11FF550-F6BD-47A7-A02F-D8B8761F3B7E}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
@@ -1832,7 +3550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6865F10-E9FE-478C-BC4E-59A85CD14026}" name="Tabela dinâmica6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6865F10-E9FE-478C-BC4E-59A85CD14026}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1892,9 +3610,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1932,7 +3650,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2038,7 +3756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2180,13 +3898,368 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B996EB-AD76-488D-8FF8-B611A07802B9}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11">
+        <v>164</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12">
+        <f>AVERAGE(B2:B18)</f>
+        <v>23.058823529411764</v>
+      </c>
+      <c r="I2" s="11">
+        <f>AVERAGE(E2:E18)</f>
+        <v>172.76470588235293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11">
+        <v>170</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="11">
+        <f>MEDIAN(B2:B18)</f>
+        <v>22</v>
+      </c>
+      <c r="I3" s="11">
+        <f>MEDIAN(E2:E18)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>38</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B82151-1054-4ED6-B37E-F998D64D450A}">
   <dimension ref="A3:F6"/>
   <sheetViews>
@@ -2194,83 +4267,83 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <f>E4/E6</f>
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <f>E5/E6</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <f>SUM(E4:E5)</f>
         <v>17</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <f>F4+F5</f>
         <v>1</v>
       </c>
@@ -2281,145 +4354,261 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E87FC64-0FC4-411E-BA52-5AB5AB88AF58}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1" xr:uid="{0E87FC64-0FC4-411E-BA52-5AB5AB88AF58}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A18">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F830E249-24F5-4F0D-B0DD-AE55A7069D10}">
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f>E4/$E$9</f>
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F8" si="0">E5/$E$9</f>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f>SUM(E4:E8)</f>
         <v>17</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f>SUM(F4:F8)</f>
         <v>1</v>
       </c>
@@ -2428,326 +4617,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B996EB-AD76-488D-8FF8-B611A07802B9}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>